--- a/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.95403270005798</v>
+        <v>89.98242085050344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6141941104514956</v>
+        <v>0.6570401596326824</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.15042519683823</v>
+        <v>88.99753057623431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7224142735711028</v>
+        <v>0.6595776878121118</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.05690085917817</v>
+        <v>87.88517918325708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6526133680750973</v>
+        <v>0.7260004285983556</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.98089031546186</v>
+        <v>86.99095562043937</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7580817347718274</v>
+        <v>0.6622742509753163</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.92979112372474</v>
+        <v>85.87578769594207</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6685245165713274</v>
+        <v>0.6337707259852549</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.00280912320841</v>
+        <v>84.95843591652515</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6174081350847151</v>
+        <v>0.6718811657587731</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.9556226194378</v>
+        <v>83.94691641304786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7694250114495537</v>
+        <v>0.7039706463291676</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.06917193385034</v>
+        <v>82.98421879366717</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7248396538353886</v>
+        <v>0.6820610882509414</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.98337662503495</v>
+        <v>81.99438868849074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7866431759167563</v>
+        <v>0.7370945992350619</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.03725749789773</v>
+        <v>81.04064257427039</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7651857151302036</v>
+        <v>0.754601339976006</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.06290122048713</v>
+        <v>80.0163463331594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8179194662593535</v>
+        <v>0.7477424530223539</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.01778914365678</v>
+        <v>79.06521333303361</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7994846124630063</v>
+        <v>0.8134960169250431</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.00873497399853</v>
+        <v>77.86737536815393</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7342623405565413</v>
+        <v>0.8317459348447688</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.90442148567057</v>
+        <v>76.90120600765644</v>
       </c>
       <c r="D15" t="n">
-        <v>0.805240320230149</v>
+        <v>0.8196240384331428</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.07033788857228</v>
+        <v>76.03960300680799</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7478533502237097</v>
+        <v>0.8093273016457382</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.10779244367872</v>
+        <v>75.03266482200058</v>
       </c>
       <c r="D17" t="n">
-        <v>0.777937025049418</v>
+        <v>0.7324407197344558</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.13629050761881</v>
+        <v>73.86920495559481</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8601623195042747</v>
+        <v>0.784554707814117</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.04914146283672</v>
+        <v>72.92984774860862</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8581335047003289</v>
+        <v>1.005170935329718</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.03019862965942</v>
+        <v>72.05591629114478</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9126620188707658</v>
+        <v>0.9320055417533226</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.84701868417893</v>
+        <v>71.20937843765363</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7192808692907825</v>
+        <v>0.8047763449361879</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.96021237435536</v>
+        <v>69.90728587169265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9550521595313397</v>
+        <v>0.8278755467619543</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.99451424171353</v>
+        <v>69.03720695669149</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9268376435370532</v>
+        <v>0.875452407861472</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97112865680688</v>
+        <v>67.87432718911199</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8229828749477071</v>
+        <v>0.8085802039763287</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.02814690402056</v>
+        <v>67.0602893850927</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9280316818537789</v>
+        <v>0.8578204892341443</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.00999514245956</v>
+        <v>65.69863608234141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9596986448793894</v>
+        <v>0.8637909634645992</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.10792434996311</v>
+        <v>64.96445438709105</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8932140449184651</v>
+        <v>0.8556212977890777</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.12847544026476</v>
+        <v>63.95659515413191</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8822574287287691</v>
+        <v>0.9815589339133135</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.03307616797813</v>
+        <v>63.08330578205526</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9027399768876998</v>
+        <v>0.826790948326137</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.85417365639017</v>
+        <v>62.01798889295716</v>
       </c>
       <c r="D30" t="n">
-        <v>1.013231308206135</v>
+        <v>1.103932612055015</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.83602058411279</v>
+        <v>60.78359128847964</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9448023182139574</v>
+        <v>1.096096996794421</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.85361991455411</v>
+        <v>59.95815889432441</v>
       </c>
       <c r="D32" t="n">
-        <v>1.054461960083809</v>
+        <v>0.8572112262631776</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.07454832825426</v>
+        <v>59.0296543614445</v>
       </c>
       <c r="D33" t="n">
-        <v>1.115587055377913</v>
+        <v>1.000406331919168</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.89548347265527</v>
+        <v>58.03262341835479</v>
       </c>
       <c r="D34" t="n">
-        <v>1.050374760755498</v>
+        <v>0.9593928472153425</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.01312300298046</v>
+        <v>56.97046898992888</v>
       </c>
       <c r="D35" t="n">
-        <v>1.08622076863929</v>
+        <v>1.076736026596402</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0340190280769</v>
+        <v>55.98549668678628</v>
       </c>
       <c r="D36" t="n">
-        <v>1.121326234194376</v>
+        <v>1.055530703470277</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.11081031806972</v>
+        <v>54.92404912468388</v>
       </c>
       <c r="D37" t="n">
-        <v>1.023264050865925</v>
+        <v>0.8948232118946648</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.05577949400604</v>
+        <v>53.88307930277857</v>
       </c>
       <c r="D38" t="n">
-        <v>1.095304564517849</v>
+        <v>1.088971551254966</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.97812269096448</v>
+        <v>53.18331701781227</v>
       </c>
       <c r="D39" t="n">
-        <v>1.165798124868392</v>
+        <v>0.9642432310186588</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.02846606751869</v>
+        <v>51.99186972979893</v>
       </c>
       <c r="D40" t="n">
-        <v>1.008981379375204</v>
+        <v>1.100022313838188</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.04381028999255</v>
+        <v>50.66119376610339</v>
       </c>
       <c r="D41" t="n">
-        <v>1.078342663232391</v>
+        <v>1.054545254328975</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.77429743347827</v>
+        <v>49.9651003668337</v>
       </c>
       <c r="D42" t="n">
-        <v>1.240902128402347</v>
+        <v>1.055447772906894</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.09258241881808</v>
+        <v>49.13756423848645</v>
       </c>
       <c r="D43" t="n">
-        <v>1.063779664331181</v>
+        <v>1.187351142797784</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.89914368711279</v>
+        <v>48.11301651124952</v>
       </c>
       <c r="D44" t="n">
-        <v>1.133469345614352</v>
+        <v>1.140934318748523</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.07616189386727</v>
+        <v>46.87124847201591</v>
       </c>
       <c r="D45" t="n">
-        <v>1.192786750079845</v>
+        <v>1.15265787705139</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84437496166048</v>
+        <v>45.99456771194924</v>
       </c>
       <c r="D46" t="n">
-        <v>1.070757889348692</v>
+        <v>1.200464136382315</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.00441065145191</v>
+        <v>45.08971566200568</v>
       </c>
       <c r="D47" t="n">
-        <v>1.274905333283317</v>
+        <v>1.274013079563716</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.83943349970867</v>
+        <v>44.03094954390934</v>
       </c>
       <c r="D48" t="n">
-        <v>1.22995673742705</v>
+        <v>1.256985872506631</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.97121988603565</v>
+        <v>43.08644698892483</v>
       </c>
       <c r="D49" t="n">
-        <v>1.109899448036205</v>
+        <v>0.9093229271980818</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.05091297395585</v>
+        <v>42.32144688747404</v>
       </c>
       <c r="D50" t="n">
-        <v>1.296298195184976</v>
+        <v>0.9750362629973829</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.06264473636536</v>
+        <v>40.86431695962167</v>
       </c>
       <c r="D51" t="n">
-        <v>1.146161269916253</v>
+        <v>1.217435203934339</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.91784134703974</v>
+        <v>39.89669256816602</v>
       </c>
       <c r="D52" t="n">
-        <v>1.121597925308</v>
+        <v>1.326274935548724</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.99449734509234</v>
+        <v>38.94759097025896</v>
       </c>
       <c r="D53" t="n">
-        <v>1.139004588310861</v>
+        <v>1.144289243804382</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03853740579911</v>
+        <v>37.79173765772653</v>
       </c>
       <c r="D54" t="n">
-        <v>1.134014083808041</v>
+        <v>1.34376628638789</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.9480309527079</v>
+        <v>36.70871755639205</v>
       </c>
       <c r="D55" t="n">
-        <v>1.099483174509307</v>
+        <v>1.253428507325413</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.03480496679434</v>
+        <v>36.16958006381191</v>
       </c>
       <c r="D56" t="n">
-        <v>1.176776668181375</v>
+        <v>1.230105019829025</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.95285756534886</v>
+        <v>35.07840621479576</v>
       </c>
       <c r="D57" t="n">
-        <v>1.381411003371729</v>
+        <v>1.272486450897503</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.09617126159556</v>
+        <v>34.22976117584076</v>
       </c>
       <c r="D58" t="n">
-        <v>1.201190543610312</v>
+        <v>1.07241079401927</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.11294633840495</v>
+        <v>32.9211752651404</v>
       </c>
       <c r="D59" t="n">
-        <v>1.112597136453938</v>
+        <v>1.154835213489266</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.07462031565918</v>
+        <v>31.94592978791846</v>
       </c>
       <c r="D60" t="n">
-        <v>1.214049886698592</v>
+        <v>1.306471483875679</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.03647349558386</v>
+        <v>31.09596661158104</v>
       </c>
       <c r="D61" t="n">
-        <v>1.414893998185629</v>
+        <v>1.280460193362811</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.96554604743609</v>
+        <v>29.88123626596331</v>
       </c>
       <c r="D62" t="n">
-        <v>1.296474593351626</v>
+        <v>1.291112664811246</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.96170711838803</v>
+        <v>29.0328244291444</v>
       </c>
       <c r="D63" t="n">
-        <v>1.296906130002523</v>
+        <v>1.45179835006831</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.9201240494425</v>
+        <v>28.0011622927433</v>
       </c>
       <c r="D64" t="n">
-        <v>1.321362808820217</v>
+        <v>1.381698782088595</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.92659796077884</v>
+        <v>26.97845126838889</v>
       </c>
       <c r="D65" t="n">
-        <v>1.398727831926591</v>
+        <v>1.325069786770106</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.83101560760533</v>
+        <v>26.06635854815593</v>
       </c>
       <c r="D66" t="n">
-        <v>1.399966577738404</v>
+        <v>1.381430079725802</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.20922810415054</v>
+        <v>25.04431845092712</v>
       </c>
       <c r="D67" t="n">
-        <v>1.372652854751575</v>
+        <v>1.432224819355097</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.96850532438602</v>
+        <v>23.94853154051054</v>
       </c>
       <c r="D68" t="n">
-        <v>1.435734679214618</v>
+        <v>1.379971899544725</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.1688385901681</v>
+        <v>23.30213963405301</v>
       </c>
       <c r="D69" t="n">
-        <v>1.353332491925331</v>
+        <v>1.477358860098445</v>
       </c>
     </row>
   </sheetData>
